--- a/sd-add-sp-sur-healthcareservice/ig/StructureDefinition-ror-measurereport.xlsx
+++ b/sd-add-sp-sur-healthcareservice/ig/StructureDefinition-ror-measurereport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T09:42:55+00:00</t>
+    <t>2024-03-28T12:29:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-sp-sur-healthcareservice/ig/StructureDefinition-ror-measurereport.xlsx
+++ b/sd-add-sp-sur-healthcareservice/ig/StructureDefinition-ror-measurereport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T12:29:08+00:00</t>
+    <t>2024-03-28T13:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
